--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il18-Il18r1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il18-Il18r1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,51 +537,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.036455333333334</v>
+        <v>0.2184343333333333</v>
       </c>
       <c r="H2">
-        <v>6.109366000000001</v>
+        <v>0.655303</v>
       </c>
       <c r="I2">
-        <v>0.05235126607966554</v>
+        <v>0.008416673064019609</v>
       </c>
       <c r="J2">
-        <v>0.05235126607966553</v>
+        <v>0.00841667306401961</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>3.073632</v>
+        <v>0.2710126666666666</v>
       </c>
       <c r="N2">
-        <v>9.220896</v>
+        <v>0.8130379999999999</v>
       </c>
       <c r="O2">
-        <v>0.9494824536320199</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.9494824536320199</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>6.259314279104</v>
+        <v>0.05919847116822221</v>
       </c>
       <c r="R2">
-        <v>56.33382851193601</v>
+        <v>0.5327862405139999</v>
       </c>
       <c r="S2">
-        <v>0.04970660856806357</v>
+        <v>0.008416673064019609</v>
       </c>
       <c r="T2">
-        <v>0.04970660856806356</v>
+        <v>0.00841667306401961</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -593,57 +593,57 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.036455333333334</v>
+        <v>4.199828</v>
       </c>
       <c r="H3">
-        <v>6.109366000000001</v>
+        <v>12.599484</v>
       </c>
       <c r="I3">
-        <v>0.05235126607966554</v>
+        <v>0.1618270290283213</v>
       </c>
       <c r="J3">
-        <v>0.05235126607966553</v>
+        <v>0.1618270290283213</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.1635336666666667</v>
+        <v>0.2710126666666666</v>
       </c>
       <c r="N3">
-        <v>0.490601</v>
+        <v>0.8130379999999999</v>
       </c>
       <c r="O3">
-        <v>0.05051754636798014</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.05051754636798014</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.3330290076628889</v>
+        <v>1.138206585821333</v>
       </c>
       <c r="R3">
-        <v>2.997261068966</v>
+        <v>10.243859272392</v>
       </c>
       <c r="S3">
-        <v>0.00264465751160197</v>
+        <v>0.1618270290283213</v>
       </c>
       <c r="T3">
-        <v>0.002644657511601969</v>
+        <v>0.1618270290283213</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.199828</v>
+        <v>3.307112333333333</v>
       </c>
       <c r="H4">
-        <v>12.599484</v>
+        <v>9.921336999999999</v>
       </c>
       <c r="I4">
-        <v>0.1079652028296371</v>
+        <v>0.1274290669918512</v>
       </c>
       <c r="J4">
-        <v>0.1079652028296371</v>
+        <v>0.1274290669918513</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>3.073632</v>
+        <v>0.2710126666666666</v>
       </c>
       <c r="N4">
-        <v>9.220896</v>
+        <v>0.8130379999999999</v>
       </c>
       <c r="O4">
-        <v>0.9494824536320199</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.9494824536320199</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>12.908725735296</v>
+        <v>0.8962693324228886</v>
       </c>
       <c r="R4">
-        <v>116.178531617664</v>
+        <v>8.066423991805999</v>
       </c>
       <c r="S4">
-        <v>0.1025110656895625</v>
+        <v>0.1274290669918512</v>
       </c>
       <c r="T4">
-        <v>0.1025110656895625</v>
+        <v>0.1274290669918513</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -723,294 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.199828</v>
+        <v>18.22719966666667</v>
       </c>
       <c r="H5">
-        <v>12.599484</v>
+        <v>54.681599</v>
       </c>
       <c r="I5">
-        <v>0.1079652028296371</v>
+        <v>0.7023272309158078</v>
       </c>
       <c r="J5">
-        <v>0.1079652028296371</v>
+        <v>0.7023272309158078</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1635336666666667</v>
+        <v>0.2710126666666666</v>
       </c>
       <c r="N5">
-        <v>0.490601</v>
+        <v>0.8130379999999999</v>
       </c>
       <c r="O5">
-        <v>0.05051754636798014</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.05051754636798014</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.6868132722093333</v>
+        <v>4.93980198752911</v>
       </c>
       <c r="R5">
-        <v>6.181319449884</v>
+        <v>44.458217887762</v>
       </c>
       <c r="S5">
-        <v>0.005454137140074573</v>
+        <v>0.7023272309158078</v>
       </c>
       <c r="T5">
-        <v>0.005454137140074571</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>2.620790333333333</v>
-      </c>
-      <c r="H6">
-        <v>7.862371</v>
-      </c>
-      <c r="I6">
-        <v>0.06737279715080845</v>
-      </c>
-      <c r="J6">
-        <v>0.06737279715080843</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>3.073632</v>
-      </c>
-      <c r="N6">
-        <v>9.220896</v>
-      </c>
-      <c r="O6">
-        <v>0.9494824536320199</v>
-      </c>
-      <c r="P6">
-        <v>0.9494824536320199</v>
-      </c>
-      <c r="Q6">
-        <v>8.055345033824</v>
-      </c>
-      <c r="R6">
-        <v>72.498105304416</v>
-      </c>
-      <c r="S6">
-        <v>0.06396928874680197</v>
-      </c>
-      <c r="T6">
-        <v>0.06396928874680195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2.620790333333333</v>
-      </c>
-      <c r="H7">
-        <v>7.862371</v>
-      </c>
-      <c r="I7">
-        <v>0.06737279715080845</v>
-      </c>
-      <c r="J7">
-        <v>0.06737279715080843</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>0.1635336666666667</v>
-      </c>
-      <c r="N7">
-        <v>0.490601</v>
-      </c>
-      <c r="O7">
-        <v>0.05051754636798014</v>
-      </c>
-      <c r="P7">
-        <v>0.05051754636798014</v>
-      </c>
-      <c r="Q7">
-        <v>0.4285874527745556</v>
-      </c>
-      <c r="R7">
-        <v>3.857287074971</v>
-      </c>
-      <c r="S7">
-        <v>0.003403508404006486</v>
-      </c>
-      <c r="T7">
-        <v>0.003403508404006485</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>30.042756</v>
-      </c>
-      <c r="H8">
-        <v>90.12826799999999</v>
-      </c>
-      <c r="I8">
-        <v>0.772310733939889</v>
-      </c>
-      <c r="J8">
-        <v>0.7723107339398889</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>3.073632</v>
-      </c>
-      <c r="N8">
-        <v>9.220896</v>
-      </c>
-      <c r="O8">
-        <v>0.9494824536320199</v>
-      </c>
-      <c r="P8">
-        <v>0.9494824536320199</v>
-      </c>
-      <c r="Q8">
-        <v>92.34037620979198</v>
-      </c>
-      <c r="R8">
-        <v>831.0633858881279</v>
-      </c>
-      <c r="S8">
-        <v>0.7332954906275919</v>
-      </c>
-      <c r="T8">
-        <v>0.7332954906275918</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>30.042756</v>
-      </c>
-      <c r="H9">
-        <v>90.12826799999999</v>
-      </c>
-      <c r="I9">
-        <v>0.772310733939889</v>
-      </c>
-      <c r="J9">
-        <v>0.7723107339398889</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.1635336666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.490601</v>
-      </c>
-      <c r="O9">
-        <v>0.05051754636798014</v>
-      </c>
-      <c r="P9">
-        <v>0.05051754636798014</v>
-      </c>
-      <c r="Q9">
-        <v>4.913002045451999</v>
-      </c>
-      <c r="R9">
-        <v>44.21701840906799</v>
-      </c>
-      <c r="S9">
-        <v>0.03901524331229712</v>
-      </c>
-      <c r="T9">
-        <v>0.03901524331229711</v>
+        <v>0.7023272309158078</v>
       </c>
     </row>
   </sheetData>
